--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -44150,11 +44150,11 @@
   </sheetPr>
   <dimension ref="A1:B1013"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A614" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A460" activeCellId="0" sqref="A460"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.49"/>
